--- a/configTools/Luban/ConfigRoot/Datas/skill.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/skill.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="skill" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="skill_binding" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="skill_binding_rank" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="skill_quality" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="技能id规则" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="skill" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="skill_binding" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="skill_binding_rank" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="skill_quality" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="技能id规则" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1199,8 +1199,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>
@@ -2301,8 +2301,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="文档版本"/>
       <sheetName val="设计正文"/>
@@ -2517,8 +2517,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="event|事件"/>
       <sheetName val="anecdote|轶事"/>
@@ -3914,8 +3914,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="skill_effect|技能效果"/>
       <sheetName val="技能元素"/>
@@ -9716,8 +9716,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="talent|天赋"/>
       <sheetName val="talent_level|天赋等级"/>
@@ -10236,7 +10236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -31009,12 +31009,12 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -31328,7 +31328,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -31558,7 +31558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -31833,12 +31833,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -32465,7 +32465,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/configTools/Luban/ConfigRoot/Datas/skill.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/skill.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="skill" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="skill_binding" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="skill_binding_rank" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="skill_quality" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="技能id规则" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="skill" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="skill_binding" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="skill_binding_rank" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="skill_quality" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="技能id规则" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1199,8 +1199,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>
@@ -2301,8 +2301,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="文档版本"/>
       <sheetName val="设计正文"/>
@@ -2517,8 +2517,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="event|事件"/>
       <sheetName val="anecdote|轶事"/>
@@ -3914,8 +3914,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="skill_effect|技能效果"/>
       <sheetName val="技能元素"/>
@@ -9716,8 +9716,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="talent|天赋"/>
       <sheetName val="talent_level|天赋等级"/>

--- a/configTools/Luban/ConfigRoot/Datas/skill.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/skill.xlsx
@@ -10236,7 +10236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -31009,12 +31009,12 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -31328,7 +31328,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -31558,7 +31558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -31833,12 +31833,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -32465,7 +32465,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
